--- a/docs/sprint_3/Sprint3_record.xlsx
+++ b/docs/sprint_3/Sprint3_record.xlsx
@@ -13,194 +13,194 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>Shannon</t>
   </si>
   <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Deqing</t>
+  </si>
+  <si>
+    <t>Teng</t>
+  </si>
+  <si>
+    <t>Kang</t>
+  </si>
+  <si>
+    <t>Chengxi</t>
+  </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>Figured out how to put PHPUnit and Mocha on the server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing, start work tomorrow </t>
+  </si>
+  <si>
+    <t>Fixed bugs in last sprint review</t>
+  </si>
+  <si>
     <t>user story</t>
   </si>
   <si>
+    <t>Started stories, read code, revised bugs</t>
+  </si>
+  <si>
+    <t>Solve logout problem, can't delete OSU service key</t>
+  </si>
+  <si>
+    <t>Started working on user stories, need to read Bi's code</t>
+  </si>
+  <si>
+    <t>Finished project schedule, updated phpunit document, set up free account on AWS, implement autotest</t>
+  </si>
+  <si>
     <t>Refactor</t>
   </si>
   <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Deqing</t>
-  </si>
-  <si>
-    <t>Teng</t>
-  </si>
-  <si>
-    <t>Kang</t>
-  </si>
-  <si>
-    <t>Chengxi</t>
-  </si>
-  <si>
-    <t>Bi</t>
+    <t>Still need to write readme, documenting scrums</t>
+  </si>
+  <si>
+    <t>Started looking at login and welcome and designing the new experience looking to get done by tomorrow</t>
+  </si>
+  <si>
+    <t>Working on parameter validation, want js functions more robost, want to write more tests</t>
+  </si>
+  <si>
+    <t>Want to clarify a user story</t>
+  </si>
+  <si>
+    <t>learnability</t>
+  </si>
+  <si>
+    <t>Looked at source code currently have, tried to deploy server to his server, trying to figure out how to solve it</t>
+  </si>
+  <si>
+    <t>memorability</t>
+  </si>
+  <si>
+    <t>Set up dev environment and working on user story and reading source code related to user story think he can get it done before next Monday, set up new branch</t>
   </si>
   <si>
     <t>addNewQuestion.php</t>
   </si>
   <si>
+    <t>Working on AWS</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
     <t>assign_question.php</t>
   </si>
   <si>
+    <t>error rate</t>
+  </si>
+  <si>
     <t>create a check user function to use in multiple locations</t>
   </si>
   <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>checkUserType.php</t>
   </si>
   <si>
+    <t>Only those who should have access to those pages have access.</t>
+  </si>
+  <si>
     <t>check_user.php</t>
   </si>
   <si>
+    <t>Working on readme</t>
+  </si>
+  <si>
+    <t>User study in the lab</t>
+  </si>
+  <si>
+    <t>Graded</t>
+  </si>
+  <si>
     <t>get_question_detail</t>
   </si>
   <si>
+    <t>Worked on refactoring of sprint 2 code, fixed previous bugs, working on stories for delete</t>
+  </si>
+  <si>
+    <t>rewording</t>
+  </si>
+  <si>
+    <t>Finished the story about students selecting class and refactoring code almost done with admin dashboard</t>
+  </si>
+  <si>
+    <t>Added tests for student dashboard, refactored php file for that page</t>
+  </si>
+  <si>
+    <t>Working on user story for question they posted</t>
+  </si>
+  <si>
     <t>joininquestion</t>
   </si>
   <si>
-    <t>learnability</t>
+    <t>Working on code from previous sprint, trying to test</t>
+  </si>
+  <si>
+    <t>By rewording the pages, the language is more consistent with preexisting systems which the students will use in conjuction with our system.</t>
+  </si>
+  <si>
+    <t>User study in the field</t>
   </si>
   <si>
     <t>query_class</t>
   </si>
   <si>
+    <t>Working on the readme</t>
+  </si>
+  <si>
+    <t>rework index page</t>
+  </si>
+  <si>
+    <t>Did log in redirect, if there is an error it will redirect to welcome, logout takes to welcome</t>
+  </si>
+  <si>
     <t>question_list</t>
   </si>
   <si>
+    <t>Still working on delete questions and set up framework for restful api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished the admin dashboard to show the course and added the course and fixed the bug when student select to delete, if something fails it will roll back. </t>
+  </si>
+  <si>
+    <t>students modify question</t>
+  </si>
+  <si>
     <t>quitQuestion</t>
   </si>
   <si>
-    <t>memorability</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>error rate</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Only those who should have access to those pages have access.</t>
-  </si>
-  <si>
-    <t>User study in the lab</t>
-  </si>
-  <si>
-    <t>rewording</t>
-  </si>
-  <si>
-    <t>By rewording the pages, the language is more consistent with preexisting systems which the students will use in conjuction with our system.</t>
-  </si>
-  <si>
-    <t>User study in the field</t>
-  </si>
-  <si>
-    <t>Figured out how to put PHPUnit and Mocha on the server</t>
-  </si>
-  <si>
-    <t>rework index page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nothing, start work tomorrow </t>
-  </si>
-  <si>
-    <t>Fixed bugs in last sprint review</t>
-  </si>
-  <si>
-    <t>students modify question</t>
-  </si>
-  <si>
-    <t>Started stories, read code, revised bugs</t>
-  </si>
-  <si>
-    <t>Solve logout problem, can't delete OSU service key</t>
-  </si>
-  <si>
-    <t>Started working on user stories, need to read Bi's code</t>
-  </si>
-  <si>
-    <t>Finished project schedule, updated phpunit document, set up free account on AWS, implement autotest</t>
+    <t>Added toast and question list page, some bugs in the page, will focus on fixing bugs tomorrow</t>
+  </si>
+  <si>
+    <t>Working on editing question they posted, shows description, need to rewrite database</t>
+  </si>
+  <si>
+    <t>Refactor get question list file and make some public function and checks permissions</t>
+  </si>
+  <si>
+    <t>None, demoed phpunit yesterday, will continue maintaining scrum</t>
   </si>
   <si>
     <t xml:space="preserve">Students can update the question rather than deleting and recreating reducing the number of steps. </t>
   </si>
   <si>
-    <t>Still need to write readme, documenting scrums</t>
-  </si>
-  <si>
-    <t>Started looking at login and welcome and designing the new experience looking to get done by tomorrow</t>
-  </si>
-  <si>
-    <t>Working on parameter validation, want js functions more robost, want to write more tests</t>
-  </si>
-  <si>
-    <t>Want to clarify a user story</t>
-  </si>
-  <si>
-    <t>Looked at source code currently have, tried to deploy server to his server, trying to figure out how to solve it</t>
-  </si>
-  <si>
-    <t>Set up dev environment and working on user story and reading source code related to user story think he can get it done before next Monday, set up new branch</t>
-  </si>
-  <si>
-    <t>Working on AWS</t>
-  </si>
-  <si>
-    <t>Working on readme</t>
-  </si>
-  <si>
-    <t>Graded</t>
-  </si>
-  <si>
-    <t>Worked on refactoring of sprint 2 code, fixed previous bugs, working on stories for delete</t>
-  </si>
-  <si>
-    <t>Finished the story about students selecting class and refactoring code almost done with admin dashboard</t>
-  </si>
-  <si>
-    <t>Added tests for student dashboard, refactored php file for that page</t>
-  </si>
-  <si>
-    <t>Working on user story for question they posted</t>
-  </si>
-  <si>
-    <t>Working on code from previous sprint, trying to test</t>
-  </si>
-  <si>
-    <t>Working on the readme</t>
-  </si>
-  <si>
-    <t>Did log in redirect, if there is an error it will redirect to welcome, logout takes to welcome</t>
-  </si>
-  <si>
-    <t>Still working on delete questions and set up framework for restful api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finished the admin dashboard to show the course and added the course and fixed the bug when student select to delete, if something fails it will roll back. </t>
-  </si>
-  <si>
-    <t>Added toast and question list page, some bugs in the page, will focus on fixing bugs tomorrow</t>
-  </si>
-  <si>
-    <t>Working on editing question they posted, shows description, need to rewrite database</t>
-  </si>
-  <si>
-    <t>Refactor get question list file and make some public function and checks permissions</t>
-  </si>
-  <si>
-    <t>None, demoed phpunit yesterday, will continue maintaining scrum</t>
-  </si>
-  <si>
     <t>Integrated with slack github notifications for pull requests and comments</t>
   </si>
   <si>
@@ -258,6 +258,9 @@
     <t>Reviewed schedule and details to talk about function and talk about user tests</t>
   </si>
   <si>
+    <t>Still working on security</t>
+  </si>
+  <si>
     <t>Finished delete question, interest is difficult</t>
   </si>
   <si>
@@ -309,6 +312,9 @@
     <t>Getting ready of for user tests</t>
   </si>
   <si>
+    <t>Did user studies</t>
+  </si>
+  <si>
     <t>Set up user reviews</t>
   </si>
   <si>
@@ -346,6 +352,24 @@
   </si>
   <si>
     <t>Did the user tests and need one more person</t>
+  </si>
+  <si>
+    <t>Wasn't able to add unit tests, will do later today</t>
+  </si>
+  <si>
+    <t>Helped Chengxi to do API test</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Didn't find difference</t>
+  </si>
+  <si>
+    <t>Uploaded tests for API</t>
+  </si>
+  <si>
+    <t>Finished the sprint report</t>
   </si>
 </sst>
 </file>
@@ -385,10 +409,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -432,74 +456,74 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>43052.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>43052.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43053.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -507,25 +531,25 @@
         <v>43054.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -533,25 +557,25 @@
         <v>43055.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -559,7 +583,7 @@
         <v>43056.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>62</v>
@@ -639,21 +663,23 @@
       <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -661,25 +687,25 @@
         <v>43066.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -687,49 +713,51 @@
         <v>43067.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
         <v>43068.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -737,38 +765,52 @@
         <v>43069.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4">
         <v>43070.0</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="5"/>
@@ -9657,79 +9699,79 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -9745,60 +9787,60 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
+      <c r="A4" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
+      <c r="A5" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
+      <c r="A6" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
+      <c r="A7" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
+      <c r="A8" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
+      <c r="A9" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
+      <c r="A10" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
